--- a/Extracted_Invoices.xlsx
+++ b/Extracted_Invoices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="257">
   <si>
     <t>File</t>
   </si>
@@ -262,19 +262,19 @@
     <t>CODING INVADERS PRIVATE LIMITED [GtF1h1XGshTs4m] Razorpay Software Pvt. Ltd.</t>
   </si>
   <si>
-    <t>r 7 HSR Layout</t>
+    <t>IGST @ 18% 1176.3</t>
   </si>
   <si>
     <t>Devkrupa Cottons</t>
   </si>
   <si>
-    <t>Name: Fresh Gravity Inc Name: Fresh Gravity Inc</t>
-  </si>
-  <si>
-    <t>Name:Coding Invaders Pvt Ltd Name:</t>
-  </si>
-  <si>
-    <t>)</t>
+    <t>Address: Address:</t>
+  </si>
+  <si>
+    <t>AB/3 Pune Pune 411030 India</t>
+  </si>
+  <si>
+    <t>Fresh Gravity INC - USA</t>
   </si>
   <si>
     <t>r Plastic Film— 85322500 18 27790 6.90 6651.00</t>
@@ -283,34 +283,34 @@
     <t>Aeron Systems Pvt Ltd</t>
   </si>
   <si>
-    <t>P.try</t>
+    <t>GS BCE.TreOlz CUST</t>
   </si>
   <si>
     <t>Folk Fitness Services Private Limited</t>
   </si>
   <si>
-    <t>Name: Fresh Gravity Software Services India Pvt Ltd Name: Fresh Gravity Software Services India Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Informatica Business Solutions Pvt. Ltd. No. 66/1, Bagmane Commerz 02</t>
-  </si>
-  <si>
-    <t>Display Name: GirlZFashion Invoice #: FKRKA25000082250</t>
+    <t>Mumbai Bangalore Highway, Baner, Pune, Maharashtra 411045 Mumbai Bangalore Highway, Baner, Pune, Maharashtra 411045 GSTN:</t>
+  </si>
+  <si>
+    <t>Bagmane Tech Park Bangalore</t>
+  </si>
+  <si>
+    <t>Address: 43 Privet Drive, 1402, B building, ,</t>
   </si>
   <si>
     <t>Fresh Gravity Inc</t>
   </si>
   <si>
-    <t>rVehicleNo.</t>
-  </si>
-  <si>
-    <t>CODING INVADERS PRIVATE LIMITED GupShup Technology India Pvt Ltd</t>
+    <t>r--------- -+_D~eepak 909 __</t>
+  </si>
+  <si>
+    <t>Kind Attn : Tatiana Arlashkina Address : Silver Metropolis,Western Express</t>
   </si>
   <si>
     <t>certify that as per our records the following payments have been received by us to effect or keep "In</t>
   </si>
   <si>
-    <t>):</t>
+    <t>Sruti Mashru</t>
   </si>
   <si>
     <t>Name : Candor Works Private Limited Name : Candor Works Private Limited</t>
@@ -322,13 +322,16 @@
     <t>tal 14,098</t>
   </si>
   <si>
-    <t>mer</t>
-  </si>
-  <si>
-    <t>Name: Aarchix company</t>
-  </si>
-  <si>
-    <t>r Vehicle No.</t>
+    <t>CODING INVADERS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>VENTUREVERSE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Address: *B1402, 43 Privet Drive, Balewadi, PUNE, MAHARASHTRA, 411045, IN</t>
+  </si>
+  <si>
+    <t>Terms of Delivery</t>
   </si>
   <si>
     <t>wards the following :</t>
@@ -343,25 +346,25 @@
     <t>Coding Invaders Private Limited</t>
   </si>
   <si>
-    <t>Dr. Vishwanath Karad Pp</t>
+    <t>EVOLENT HEALTH INTERNATIONAL PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Dr. Vishwanath Karad Pe</t>
   </si>
   <si>
     <t>TAL ₹5,328.00</t>
   </si>
   <si>
-    <t>Evolent Health International Pvt.Ltd Date :-04-10-2024</t>
-  </si>
-  <si>
-    <t>MER VEHICLE INVOICE</t>
-  </si>
-  <si>
-    <t>Par we we a Ship to Party</t>
-  </si>
-  <si>
-    <t>) — . 31-Jul-23</t>
-  </si>
-  <si>
-    <t>Ref: AW/M3/023</t>
+    <t>STATE CODE :- MAHARASHTRA 27</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Alto K10 Automatic</t>
+  </si>
+  <si>
+    <t>) | | , a4 ~Jul-23</t>
+  </si>
+  <si>
+    <t>NAKSHATRA CREATIONS,</t>
   </si>
   <si>
     <t>27AAJCC3027H1ZS</t>
@@ -418,28 +421,31 @@
     <t>27AAGCT3891B1ZA</t>
   </si>
   <si>
-    <t>27ABECS9210L1Z1</t>
-  </si>
-  <si>
     <t>27AAFCV4049L1ZW</t>
   </si>
   <si>
+    <t>27ACYPW2738D1ZY</t>
+  </si>
+  <si>
     <t>27AATFN9444L1ZB</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Baner, Pune - 411045.</t>
   </si>
   <si>
-    <t>ation Technology</t>
+    <t>Software Services Authorised Signatory</t>
   </si>
   <si>
     <t>Flipkart Internet Private Limited</t>
   </si>
   <si>
-    <t>'sRef. OtherReference(s)</t>
-  </si>
-  <si>
-    <t>Gupshup India Pvt Ltd., we are writing to provide you with an electronic invoice for your use of Gupshup messaging services.</t>
+    <t>5%&gt;, n\</t>
+  </si>
+  <si>
+    <t>Summary CHARGES IN (INR)</t>
   </si>
   <si>
     <t>time to time. Please consult your</t>
@@ -451,13 +457,13 @@
     <t>July 2024 to September 2024</t>
   </si>
   <si>
-    <t>the date of invoice, overdue interest</t>
+    <t>@ 14% will be charged on delayed payments.</t>
   </si>
   <si>
     <t>Services Private Limited</t>
   </si>
   <si>
-    <t>'s Ref. Other Reference(s)</t>
+    <t>Elica PBWHIRLPOOL KITCHEN APPLIANCES PVT LTD.</t>
   </si>
   <si>
     <t>Smt./Ms./Shri : Aakash Sushil Goyal</t>
@@ -469,9 +475,6 @@
     <t>the Dealer P</t>
   </si>
   <si>
-    <t>3 dM ai ert GSTIN; 27AAMCA7231L1ZC &amp; PAN: AAMCA7231L) ot</t>
-  </si>
-  <si>
     <t>29AAACD5289K1Z5</t>
   </si>
   <si>
@@ -514,7 +517,7 @@
     <t>27AAOCS0494H1ZY</t>
   </si>
   <si>
-    <t>27ACYPW2738D1ZY</t>
+    <t>No Description</t>
   </si>
   <si>
     <t>Payroll Leave and Attendance Access Charges</t>
@@ -591,11 +594,8 @@
 Job Card : #3561,</t>
   </si>
   <si>
-    <t>dM ai ert GSTIN;</t>
-  </si>
-  <si>
-    <t>De ctaration | | for M/S BHAGYASHREE AGENCY-23-24
-a | We deciare that this invoice shows the actual p</t>
+    <t>i T
+_ |</t>
   </si>
   <si>
     <t>411030, 997158</t>
@@ -676,7 +676,7 @@
     <t>400093, 411030, 998361</t>
   </si>
   <si>
-    <t>411046, 411001, 254500, 411005</t>
+    <t>411046, 411001, 411005</t>
   </si>
   <si>
     <t>500050, 500084</t>
@@ -691,7 +691,7 @@
     <t>411004, 998311</t>
   </si>
   <si>
-    <t>252329, 320910, 352329</t>
+    <t>252329, 320910, 252829</t>
   </si>
   <si>
     <t>410506</t>
@@ -766,10 +766,7 @@
     <t>4501.0</t>
   </si>
   <si>
-    <t>12,600</t>
-  </si>
-  <si>
-    <t>0.</t>
+    <t>12</t>
   </si>
   <si>
     <t>2,12,400</t>
@@ -1227,7 +1224,10 @@
         <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
       </c>
       <c r="I2" t="s">
         <v>190</v>
@@ -1236,10 +1236,10 @@
         <v>223</v>
       </c>
       <c r="M2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1253,13 +1253,16 @@
         <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
         <v>191</v>
@@ -1268,13 +1271,13 @@
         <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1291,13 +1294,16 @@
         <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
         <v>192</v>
@@ -1306,10 +1312,10 @@
         <v>225</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1326,16 +1332,19 @@
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
       </c>
       <c r="I5" t="s">
         <v>193</v>
       </c>
       <c r="M5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1349,13 +1358,16 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
         <v>194</v>
@@ -1364,10 +1376,10 @@
         <v>226</v>
       </c>
       <c r="M6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1381,10 +1393,10 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
         <v>195</v>
@@ -1393,10 +1405,10 @@
         <v>227</v>
       </c>
       <c r="M7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1413,13 +1425,16 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
         <v>196</v>
@@ -1428,10 +1443,10 @@
         <v>228</v>
       </c>
       <c r="M8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1445,13 +1460,16 @@
         <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
         <v>197</v>
@@ -1460,10 +1478,10 @@
         <v>229</v>
       </c>
       <c r="M9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1473,8 +1491,11 @@
       <c r="D10" t="s">
         <v>89</v>
       </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
         <v>198</v>
@@ -1483,10 +1504,10 @@
         <v>230</v>
       </c>
       <c r="M10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1500,22 +1521,25 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
         <v>199</v>
       </c>
       <c r="M11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1529,19 +1553,25 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>167</v>
       </c>
       <c r="I12" t="s">
         <v>195</v>
       </c>
       <c r="M12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1558,13 +1588,16 @@
         <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
         <v>200</v>
@@ -1573,10 +1606,10 @@
         <v>231</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1593,13 +1626,13 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
         <v>201</v>
@@ -1608,10 +1641,10 @@
         <v>232</v>
       </c>
       <c r="M14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1624,14 +1657,20 @@
       <c r="D15" t="s">
         <v>94</v>
       </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
       <c r="I15" t="s">
         <v>195</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1645,13 +1684,16 @@
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>167</v>
       </c>
       <c r="I16" t="s">
         <v>202</v>
@@ -1660,10 +1702,10 @@
         <v>233</v>
       </c>
       <c r="M16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1680,16 +1722,16 @@
         <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
         <v>203</v>
@@ -1698,10 +1740,10 @@
         <v>234</v>
       </c>
       <c r="M17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1715,13 +1757,16 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>167</v>
       </c>
       <c r="I18" t="s">
         <v>204</v>
@@ -1730,10 +1775,10 @@
         <v>235</v>
       </c>
       <c r="M18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1747,16 +1792,16 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
         <v>205</v>
@@ -1765,10 +1810,10 @@
         <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1779,10 +1824,16 @@
         <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>167</v>
       </c>
       <c r="I20" t="s">
         <v>206</v>
@@ -1791,10 +1842,10 @@
         <v>236</v>
       </c>
       <c r="M20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1805,22 +1856,25 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>167</v>
       </c>
       <c r="I21" t="s">
         <v>207</v>
       </c>
       <c r="M21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1833,6 +1887,12 @@
       <c r="D22" t="s">
         <v>101</v>
       </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>167</v>
+      </c>
       <c r="I22" t="s">
         <v>208</v>
       </c>
@@ -1840,10 +1900,10 @@
         <v>237</v>
       </c>
       <c r="M22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1854,16 +1914,19 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
         <v>209</v>
@@ -1872,10 +1935,10 @@
         <v>238</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1883,19 +1946,19 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
         <v>210</v>
@@ -1904,10 +1967,10 @@
         <v>239</v>
       </c>
       <c r="M24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1921,19 +1984,19 @@
         <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I25" t="s">
         <v>211</v>
@@ -1942,10 +2005,10 @@
         <v>223</v>
       </c>
       <c r="M25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1956,28 +2019,31 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>167</v>
       </c>
       <c r="I26" t="s">
         <v>202</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1985,25 +2051,25 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
         <v>212</v>
       </c>
       <c r="M27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2011,13 +2077,19 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>167</v>
       </c>
       <c r="I28" t="s">
         <v>213</v>
@@ -2026,10 +2098,10 @@
         <v>240</v>
       </c>
       <c r="M28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2040,16 +2112,22 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>167</v>
       </c>
       <c r="I29" t="s">
         <v>214</v>
       </c>
       <c r="M29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2057,16 +2135,19 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I30" t="s">
         <v>215</v>
@@ -2075,10 +2156,10 @@
         <v>241</v>
       </c>
       <c r="M30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2086,16 +2167,19 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
       </c>
       <c r="G31" t="s">
         <v>135</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I31" t="s">
         <v>216</v>
@@ -2104,13 +2188,13 @@
         <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2118,13 +2202,19 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" t="s">
+        <v>167</v>
       </c>
       <c r="M32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2132,16 +2222,16 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
         <v>217</v>
@@ -2150,10 +2240,10 @@
         <v>243</v>
       </c>
       <c r="M33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2161,19 +2251,19 @@
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I34" t="s">
         <v>218</v>
@@ -2182,10 +2272,10 @@
         <v>244</v>
       </c>
       <c r="M34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2193,10 +2283,13 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I35" t="s">
         <v>219</v>
@@ -2205,10 +2298,10 @@
         <v>245</v>
       </c>
       <c r="M35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2221,26 +2314,17 @@
       <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" t="s">
-        <v>151</v>
-      </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
         <v>220</v>
       </c>
-      <c r="J36" t="s">
-        <v>246</v>
-      </c>
       <c r="M36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2251,7 +2335,16 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>136</v>
       </c>
       <c r="H37" t="s">
         <v>189</v>
@@ -2260,16 +2353,16 @@
         <v>221</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2280,25 +2373,31 @@
         <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" t="s">
         <v>136</v>
       </c>
-      <c r="G38" t="s">
-        <v>166</v>
+      <c r="H38" t="s">
+        <v>167</v>
       </c>
       <c r="I38" t="s">
         <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
